--- a/data/pbi_potencial_M.xlsx
+++ b/data/pbi_potencial_M.xlsx
@@ -1,54 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>pbi_potencial</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,2238 +426,2248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pbi_potencial</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>36922</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>36950</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1.008333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>36981</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>1.416666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>37011</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>1.825</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>37042</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>2.233333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>37072</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>2.641666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>37103</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>3.05</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>37134</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>3.458333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>37164</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>3.866666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>37195</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>4.275</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>37225</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>4.683333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>5.091666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>37287</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>37315</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>5.391666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>37346</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>5.283333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>37376</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>5.175</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>37407</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>5.066666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>37437</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>4.958333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>37468</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>37499</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>4.741666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>37529</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>4.633333333333334</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>37560</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>4.525</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>37590</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>37621</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>4.308333333333334</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>37652</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>37680</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>4.266666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>37711</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>4.333333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>37741</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>37772</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>4.466666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>37802</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>4.533333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>37833</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>37864</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>37894</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>4.733333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>37925</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>37955</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>4.866666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>37986</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>4.933333333333334</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>38017</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>5.108333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>38077</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>5.216666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>38107</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>5.325</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>38138</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>5.433333333333334</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>38168</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>5.541666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>38199</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>5.65</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>38230</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>5.758333333333333</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>38260</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>5.866666666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>38291</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>5.975</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>38321</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>6.191666666666666</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>38383</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>6.3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>38411</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>6.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>38442</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>38472</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>6.6</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>38503</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>6.8</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>38564</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>6.9</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>38595</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>38625</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>7.1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>38656</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>7.2</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>38686</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>7.3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>38717</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>38748</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>38776</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>7.583333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>38837</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>7.75</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>38868</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>38929</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>38960</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>8.083333333333334</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>8.166666666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>39021</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>8.25</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>39051</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>8.333333333333334</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>39082</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>8.416666666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>39113</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>39141</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>8.550000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>39172</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>39202</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>8.65</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>39233</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>39263</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>8.75</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>39294</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>8.85</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>39386</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>39416</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>9.049999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>39478</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>9.1</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>39507</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>8.433333333333334</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>7.766666666666667</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>39568</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>7.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>39599</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>6.433333333333334</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>5.766666666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>39660</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>4.433333333333334</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>3.766666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>39752</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>39782</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>2.433333333333334</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>1.766666666666667</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>39844</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>39872</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>39933</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>39964</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>39994</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>4.100000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>40025</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>4.700000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>40056</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>5.300000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>40117</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>40147</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>7.100000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>7.700000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>40209</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>40237</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>8.133333333333335</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>40268</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>7.966666666666667</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>40298</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>7.800000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>40329</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>7.633333333333334</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>7.466666666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>40390</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>7.300000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>40421</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>7.133333333333334</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>6.966666666666667</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>40482</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>6.8</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>40512</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>6.633333333333333</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>6.466666666666667</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>40574</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>6.3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>40602</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>6.283333333333333</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>40633</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>6.266666666666667</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>40663</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>6.25</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>6.233333333333333</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>6.216666666666667</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>6.199999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>6.183333333333333</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>6.166666666666666</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>40847</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>6.149999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>40877</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>6.133333333333333</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>6.116666666666666</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>40939</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>40968</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>40999</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>6.066666666666666</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>41029</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>6.05</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>41060</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>6.033333333333333</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>6.016666666666667</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>41121</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>5.983333333333333</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>5.966666666666667</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>5.95</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>41243</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>5.933333333333334</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>41333</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>5.608333333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>5.316666666666667</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>41394</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>5.025</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>41425</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>4.733333333333333</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>4.441666666666666</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>41486</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>4.15</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>41517</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>3.858333333333333</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>3.566666666666667</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>41578</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>3.275</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>41608</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>2.983333333333333</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>2.691666666666667</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>41670</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>41698</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>2.475</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>41729</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>2.55</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>41759</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>2.625</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>41790</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>2.775</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>41851</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>2.85</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>2.925</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>41943</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>3.075</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>41973</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>3.15</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>3.225</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>42063</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>3.358333333333333</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>3.416666666666667</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>42124</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>3.475</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>42155</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>3.533333333333333</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>3.591666666666667</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>42216</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>3.65</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>3.708333333333333</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>3.766666666666667</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>42308</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>3.825</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>42338</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>3.883333333333333</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>3.941666666666666</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>42400</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>42429</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>3.875</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>42460</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>42490</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>3.625</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>42521</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>3.375</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>42582</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>3.25</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>42613</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>3.125</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>42643</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>42674</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>2.875</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>42704</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>2.75</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>2.625</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>42794</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>2.625</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>2.75</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>2.875</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>42886</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>3.125</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>42947</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>3.25</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>3.375</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>43039</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>3.625</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>43069</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>3.875</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>3.85</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>43220</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>3.55</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>43251</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>3.25</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>43312</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>43343</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>2.95</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>43404</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>2.65</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>43434</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>2.35</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>43524</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="B220">
-        <v>4.440892098500626E-16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2">
+      <c r="B220" t="n">
+        <v>4.440892098500626e-16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>43585</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>43616</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>-2.199999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>-3.299999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>43677</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>-4.399999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>43708</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>-5.499999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>-6.599999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>43769</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>-7.699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>43799</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>-8.799999999999997</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>-9.899999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>43861</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>-11</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>43890</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>-8.975</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>-6.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>43951</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>-4.925000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>43982</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>-2.9</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>-0.875</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>44043</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>1.149999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>44074</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>3.174999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>44135</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>7.224999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>44165</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>9.25</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>11.275</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>44227</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>44255</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>12.41666666666667</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>11.53333333333333</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>44316</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>10.65</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>44347</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>9.766666666666667</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>8.883333333333333</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>44408</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>44439</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>7.116666666666667</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>6.233333333333333</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>44500</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>5.35</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>44530</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>4.466666666666667</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>3.583333333333334</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>44592</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>44620</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>44681</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>44712</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>44773</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>44804</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>44865</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>1.591666666666667</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>1.683333333333333</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>45046</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>1.775</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>45077</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>1.866666666666667</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>1.958333333333333</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>45138</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>2.05</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>2.141666666666667</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>45199</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>2.233333333333333</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>45230</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>2.325</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>2.416666666666667</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>2.508333333333333</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>45322</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>2.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>